--- a/MEGA-SENA.xlsx
+++ b/MEGA-SENA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jairo\Documents\analise_de_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C2A7B1-1A1D-4B05-9B04-1AADF42C00A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52770B73-3F94-4EE6-BC77-3BAC5D5728FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>DATA</t>
   </si>
@@ -65,6 +65,9 @@
   <si>
     <t>15</t>
   </si>
+  <si>
+    <t>VALOR ACUMULADO</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +76,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="00"/>
+    <numFmt numFmtId="166" formatCode="00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,11 +153,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,77 +189,99 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="172" formatCode="00"/>
+      <numFmt numFmtId="166" formatCode="00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="172" formatCode="00"/>
+      <numFmt numFmtId="166" formatCode="00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="172" formatCode="00"/>
+      <numFmt numFmtId="166" formatCode="00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="172" formatCode="00"/>
+      <numFmt numFmtId="166" formatCode="00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="172" formatCode="00"/>
+      <numFmt numFmtId="166" formatCode="00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="172" formatCode="00"/>
+      <numFmt numFmtId="166" formatCode="00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="166" formatCode="00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -260,27 +307,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AEFE96F0-1A1D-4E57-8197-E5F6E050B913}" name="Tabela6" displayName="Tabela6" ref="A2:J4" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B4BA89DD-4214-4DDA-A7C7-BF7780257A2C}" name="Coluna1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{97A02C8A-9657-4274-81F2-0476E4AB5EE5}" name="Coluna2" headerRowDxfId="9" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{97DFE0F2-6A5B-4453-8051-A7CE7ECBD140}" name="Coluna3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7EB000EA-30CD-4B4A-BAF5-2854B2DA741A}" name="Coluna4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5583DAF9-0EEB-47EF-992F-3B9830BA0051}" name="Coluna5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0A1329D9-1428-40C9-B1BC-BA443D45D003}" name="Coluna6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{874FFF87-FBC7-47A4-9226-B05C05DB6E27}" name="Coluna7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C8E839CE-B16F-4052-8681-DEFE7F76CEBD}" name="Coluna8" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{E150276D-824D-4171-A4A4-E9FAE1F1E953}" name="Coluna9" headerRowDxfId="8" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AEFE96F0-1A1D-4E57-8197-E5F6E050B913}" name="Tabela6" displayName="Tabela6" ref="A2:K4" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B4BA89DD-4214-4DDA-A7C7-BF7780257A2C}" name="Coluna1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{97A02C8A-9657-4274-81F2-0476E4AB5EE5}" name="Coluna2" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{97DFE0F2-6A5B-4453-8051-A7CE7ECBD140}" name="Coluna3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7EB000EA-30CD-4B4A-BAF5-2854B2DA741A}" name="Coluna4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5583DAF9-0EEB-47EF-992F-3B9830BA0051}" name="Coluna5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{0A1329D9-1428-40C9-B1BC-BA443D45D003}" name="Coluna6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{874FFF87-FBC7-47A4-9226-B05C05DB6E27}" name="Coluna7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{C8E839CE-B16F-4052-8681-DEFE7F76CEBD}" name="Coluna8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{E150276D-824D-4171-A4A4-E9FAE1F1E953}" name="Coluna9" headerRowDxfId="2" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{6AE12EE1-22A5-4B0B-84F0-ED620B47969B}" name="Coluna10"/>
+    <tableColumn id="11" xr3:uid="{E34D6BDD-1B08-46C1-AD5C-61D871380D7E}" name="Coluna11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -424,7 +472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -566,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEB9251-91F2-4362-B4A1-23FBA34450E6}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,53 +649,57 @@
     <col min="3" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2670</v>
       </c>
       <c r="B2" s="2">
         <v>45291</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>21</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>24</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>33</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>41</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>48</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>56</v>
       </c>
       <c r="I2" s="1">
@@ -656,30 +708,31 @@
       <c r="J2" t="s">
         <v>5</v>
       </c>
+      <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2671</v>
       </c>
       <c r="B3" s="2">
         <v>45295</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>16</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>19</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>43</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>53</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>57</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>58</v>
       </c>
       <c r="I3" s="1">
@@ -688,30 +741,33 @@
       <c r="J3" t="s">
         <v>6</v>
       </c>
+      <c r="K3" s="17">
+        <v>6500000</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2672</v>
       </c>
       <c r="B4" s="2">
         <v>45297</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>13</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>20</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>40</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>43</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>56</v>
       </c>
       <c r="I4" s="1">
@@ -720,94 +776,101 @@
       <c r="J4" t="s">
         <v>5</v>
       </c>
+      <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2673</v>
       </c>
       <c r="B5" s="2">
         <v>45300</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>27</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>35</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>45</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>52</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>56</v>
       </c>
       <c r="I5" s="1">
         <v>2376828.79</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="K5" s="16">
+        <v>5500000</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>2674</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>45302</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>21</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>23</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>46</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>6500000</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="K6" s="15">
+        <v>16000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2675</v>
       </c>
       <c r="B7" s="2">
         <v>45304</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>26</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>31</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>34</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>42</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>45</v>
       </c>
       <c r="I7" s="1">
@@ -816,17 +879,59 @@
       <c r="J7" t="s">
         <v>6</v>
       </c>
+      <c r="K7" s="14">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2676</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45307</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11">
+        <v>19</v>
+      </c>
+      <c r="G8" s="11">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7">
+        <v>21000000</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7">
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C6 E6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MEGA-SENA.xlsx
+++ b/MEGA-SENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52770B73-3F94-4EE6-BC77-3BAC5D5728FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA39D1F-6DC4-45A0-AD1B-8FB18B5562D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>DATA</t>
   </si>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,23 +202,20 @@
     <xf numFmtId="166" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +636,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,21 +656,21 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -741,7 +738,7 @@
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <v>6500000</v>
       </c>
     </row>
@@ -809,7 +806,7 @@
       <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <v>5500000</v>
       </c>
     </row>
@@ -844,7 +841,7 @@
       <c r="J6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>16000000</v>
       </c>
     </row>
@@ -879,7 +876,7 @@
       <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>21000000</v>
       </c>
     </row>
@@ -919,7 +916,39 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="1"/>
+      <c r="A9" s="3">
+        <v>2677</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45309</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
+        <v>32</v>
+      </c>
+      <c r="F9" s="10">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10">
+        <v>54</v>
+      </c>
+      <c r="I9" s="1">
+        <v>27000000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="13">
+        <v>31000000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/MEGA-SENA.xlsx
+++ b/MEGA-SENA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jairo\Documents\analise_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA39D1F-6DC4-45A0-AD1B-8FB18B5562D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3096D1-41C4-4450-A15D-94F6D178A977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>DATA</t>
   </si>
@@ -67,6 +67,36 @@
   </si>
   <si>
     <t>VALOR ACUMULADO</t>
+  </si>
+  <si>
+    <t>INTERVALO ENTRE AS DEZENAS</t>
+  </si>
+  <si>
+    <t>03 09 08 07 08</t>
+  </si>
+  <si>
+    <t>03 24 10 04 08</t>
+  </si>
+  <si>
+    <t>03 07 20 03 13</t>
+  </si>
+  <si>
+    <t>23 08 10 07 04</t>
+  </si>
+  <si>
+    <t>06 01 06 02 23</t>
+  </si>
+  <si>
+    <t>25 05 03 08 03</t>
+  </si>
+  <si>
+    <t>02 08 05 03 07</t>
+  </si>
+  <si>
+    <t>04 25 03 08 12</t>
+  </si>
+  <si>
+    <t>03 03 02 19 17</t>
   </si>
 </sst>
 </file>
@@ -179,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,6 +244,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,7 +259,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="166" formatCode="00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -304,28 +349,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AEFE96F0-1A1D-4E57-8197-E5F6E050B913}" name="Tabela6" displayName="Tabela6" ref="A2:K4" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B4BA89DD-4214-4DDA-A7C7-BF7780257A2C}" name="Coluna1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{97A02C8A-9657-4274-81F2-0476E4AB5EE5}" name="Coluna2" headerRowDxfId="10" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{97DFE0F2-6A5B-4453-8051-A7CE7ECBD140}" name="Coluna3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{7EB000EA-30CD-4B4A-BAF5-2854B2DA741A}" name="Coluna4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5583DAF9-0EEB-47EF-992F-3B9830BA0051}" name="Coluna5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{0A1329D9-1428-40C9-B1BC-BA443D45D003}" name="Coluna6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{874FFF87-FBC7-47A4-9226-B05C05DB6E27}" name="Coluna7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{C8E839CE-B16F-4052-8681-DEFE7F76CEBD}" name="Coluna8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E150276D-824D-4171-A4A4-E9FAE1F1E953}" name="Coluna9" headerRowDxfId="2" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AEFE96F0-1A1D-4E57-8197-E5F6E050B913}" name="Tabela6" displayName="Tabela6" ref="A2:L4" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B4BA89DD-4214-4DDA-A7C7-BF7780257A2C}" name="Coluna1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{97A02C8A-9657-4274-81F2-0476E4AB5EE5}" name="Coluna2" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{97DFE0F2-6A5B-4453-8051-A7CE7ECBD140}" name="Coluna3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{7EB000EA-30CD-4B4A-BAF5-2854B2DA741A}" name="Coluna4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5583DAF9-0EEB-47EF-992F-3B9830BA0051}" name="Coluna5" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{0A1329D9-1428-40C9-B1BC-BA443D45D003}" name="Coluna6" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{874FFF87-FBC7-47A4-9226-B05C05DB6E27}" name="Coluna7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C8E839CE-B16F-4052-8681-DEFE7F76CEBD}" name="Coluna8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E150276D-824D-4171-A4A4-E9FAE1F1E953}" name="Coluna9" headerRowDxfId="3" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{6AE12EE1-22A5-4B0B-84F0-ED620B47969B}" name="Coluna10"/>
-    <tableColumn id="11" xr3:uid="{E34D6BDD-1B08-46C1-AD5C-61D871380D7E}" name="Coluna11" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{E34D6BDD-1B08-46C1-AD5C-61D871380D7E}" name="Coluna11" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{FAF73D27-6163-4567-AD36-D4CA6D782D5E}" name="Coluna12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -469,7 +515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -611,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,10 +679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEB9251-91F2-4362-B4A1-23FBA34450E6}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,23 +693,24 @@
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
@@ -673,8 +720,11 @@
       <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2670</v>
       </c>
@@ -706,8 +756,11 @@
         <v>5</v>
       </c>
       <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2671</v>
       </c>
@@ -741,8 +794,11 @@
       <c r="K3" s="15">
         <v>6500000</v>
       </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2672</v>
       </c>
@@ -774,8 +830,11 @@
         <v>5</v>
       </c>
       <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2673</v>
       </c>
@@ -809,8 +868,11 @@
       <c r="K5" s="13">
         <v>5500000</v>
       </c>
+      <c r="L5" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2674</v>
       </c>
@@ -844,8 +906,11 @@
       <c r="K6" s="14">
         <v>16000000</v>
       </c>
+      <c r="L6" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2675</v>
       </c>
@@ -879,8 +944,11 @@
       <c r="K7" s="13">
         <v>21000000</v>
       </c>
+      <c r="L7" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2676</v>
       </c>
@@ -914,40 +982,84 @@
       <c r="K8" s="7">
         <v>27000000</v>
       </c>
+      <c r="L8" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>2677</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="18">
         <v>45309</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="16">
         <v>3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="16">
         <v>7</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="16">
         <v>32</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="16">
         <v>34</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="16">
         <v>42</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="16">
         <v>54</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="19">
         <v>27000000</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="13">
         <v>31000000</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2678</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45311</v>
+      </c>
+      <c r="C10" s="11">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11">
+        <v>37</v>
+      </c>
+      <c r="H10" s="11">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31000000</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="7">
+        <v>38000000</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/MEGA-SENA.xlsx
+++ b/MEGA-SENA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jairo\Documents\analise_de_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3096D1-41C4-4450-A15D-94F6D178A977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52254E-152A-479D-AF86-377713B374B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>DATA</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>03 03 02 19 17</t>
+  </si>
+  <si>
+    <t>11 08 06 12 13</t>
   </si>
 </sst>
 </file>
@@ -369,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -409,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -515,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -657,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEB9251-91F2-4362-B4A1-23FBA34450E6}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,6 +1065,44 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>2679</v>
+      </c>
+      <c r="B11" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C11" s="16">
+        <v>7</v>
+      </c>
+      <c r="D11" s="16">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16">
+        <v>26</v>
+      </c>
+      <c r="G11" s="16">
+        <v>38</v>
+      </c>
+      <c r="H11" s="16">
+        <v>51</v>
+      </c>
+      <c r="I11" s="19">
+        <v>27000000</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="13">
+        <v>58000000</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>

--- a/MEGA-SENA.xlsx
+++ b/MEGA-SENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52254E-152A-479D-AF86-377713B374B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F97F94-C2C7-41A3-8F4D-12D534920427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>DATA</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>11 08 06 12 13</t>
+  </si>
+  <si>
+    <t>08 31 03 01 11</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEB9251-91F2-4362-B4A1-23FBA34450E6}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1094,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="19">
-        <v>27000000</v>
+        <v>38000000</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>6</v>
@@ -1101,6 +1104,44 @@
       </c>
       <c r="L11" s="16" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2680</v>
+      </c>
+      <c r="B12" s="9">
+        <v>45311</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11">
+        <v>42</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45</v>
+      </c>
+      <c r="G12" s="11">
+        <v>46</v>
+      </c>
+      <c r="H12" s="11">
+        <v>57</v>
+      </c>
+      <c r="I12" s="7">
+        <v>58000000</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="7">
+        <v>65000000</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/MEGA-SENA.xlsx
+++ b/MEGA-SENA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jairo\Documents\analise_de_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E1704D-5F6C-4B31-93EA-CCC951280D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C062F3A6-E716-4F53-9C65-A46B06ED1732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" xr2:uid="{AE25DFD9-C253-4DBA-B2CD-1C32A3349841}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>DATA</t>
   </si>
@@ -77,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -148,13 +148,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +171,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEB9251-91F2-4362-B4A1-23FBA34450E6}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,14 +512,14 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
@@ -529,667 +529,722 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2670</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>45291</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>21</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>24</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>33</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>41</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>48</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>56</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>588891000.01999998</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3">
-        <f>D2-C2</f>
+      <c r="K2" s="7"/>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L13" si="0">D2-C2</f>
         <v>3</v>
       </c>
-      <c r="M2" s="3">
-        <f>E2-D2</f>
+      <c r="M2" s="2">
+        <f t="shared" ref="M2:M13" si="1">E2-D2</f>
         <v>9</v>
       </c>
-      <c r="N2" s="3">
-        <f>F2-E2</f>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:N13" si="2">F2-E2</f>
         <v>8</v>
       </c>
-      <c r="O2" s="3">
-        <f>G2-F2</f>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O13" si="3">G2-F2</f>
         <v>7</v>
       </c>
-      <c r="P2" s="3">
-        <f>H2-G2</f>
+      <c r="P2" s="2">
+        <f t="shared" ref="P2:P13" si="4">H2-G2</f>
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2671</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>45295</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>19</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>24</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>43</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>53</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>57</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>2896755.93</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="J3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
         <v>6500000</v>
       </c>
-      <c r="L3" s="4">
-        <f>D3-C3</f>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M3" s="4">
-        <f>E3-D3</f>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N3" s="4">
-        <f>F3-E3</f>
+      <c r="N3" s="3">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O3" s="4">
-        <f>G3-F3</f>
+      <c r="O3" s="3">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="P3" s="4">
-        <f>H3-G3</f>
+      <c r="P3" s="3">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2672</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>45297</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>13</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>40</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>43</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>56</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>6500000</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="3">
-        <f>D4-C4</f>
+      <c r="K4" s="7"/>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M4" s="3">
-        <f>E4-D4</f>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N4" s="3">
-        <f>F4-E4</f>
+      <c r="N4" s="2">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O4" s="3">
-        <f>G4-F4</f>
+      <c r="O4" s="2">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P4" s="3">
-        <f>H4-G4</f>
+      <c r="P4" s="2">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2673</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>45300</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>27</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>35</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>45</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>52</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>56</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>2376828.79</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11">
         <v>5500000</v>
       </c>
-      <c r="L5" s="4">
-        <f>D5-C5</f>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M5" s="4">
-        <f>E5-D5</f>
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N5" s="4">
-        <f>F5-E5</f>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O5" s="4">
-        <f>G5-F5</f>
+      <c r="O5" s="3">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="P5" s="4">
-        <f>H5-G5</f>
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2674</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>45302</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>21</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>23</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>46</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>6500000</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7">
         <v>16000000</v>
       </c>
-      <c r="L6" s="3">
-        <f>D6-C6</f>
-        <v>6</v>
-      </c>
-      <c r="M6" s="3">
-        <f>E6-D6</f>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N6" s="3">
-        <f>F6-E6</f>
-        <v>6</v>
-      </c>
-      <c r="O6" s="3">
-        <f>G6-F6</f>
+      <c r="N6" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P6" s="3">
-        <f>H6-G6</f>
+      <c r="P6" s="2">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>2675</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>45304</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>26</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>31</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>34</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>42</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>45</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>16000000</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="J7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="11">
         <v>21000000</v>
       </c>
-      <c r="L7" s="4">
-        <f>D7-C7</f>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M7" s="4">
-        <f>E7-D7</f>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N7" s="4">
-        <f>F7-E7</f>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O7" s="4">
-        <f>G7-F7</f>
+      <c r="O7" s="3">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="P7" s="4">
-        <f>H7-G7</f>
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>2676</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>45307</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>19</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>22</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>29</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>21000000</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="J8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5">
         <v>27000000</v>
       </c>
-      <c r="L8" s="3">
-        <f>D8-C8</f>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M8" s="3">
-        <f>E8-D8</f>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N8" s="3">
-        <f>F8-E8</f>
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O8" s="3">
-        <f>G8-F8</f>
+      <c r="O8" s="2">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <f>H8-G8</f>
+      <c r="P8" s="2">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>2677</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>45309</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>32</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>34</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>42</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>54</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>27000000</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="J9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="11">
         <v>31000000</v>
       </c>
-      <c r="L9" s="4">
-        <f>D9-C9</f>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M9" s="4">
-        <f>E9-D9</f>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N9" s="4">
-        <f>F9-E9</f>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O9" s="4">
-        <f>G9-F9</f>
+      <c r="O9" s="3">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="P9" s="4">
-        <f>H9-G9</f>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>2678</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>45311</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>13</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>16</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>18</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>37</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>54</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>31000000</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="J10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5">
         <v>38000000</v>
       </c>
-      <c r="L10" s="3">
-        <f>D10-C10</f>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M10" s="3">
-        <f>E10-D10</f>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N10" s="3">
-        <f>F10-E10</f>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O10" s="3">
-        <f>G10-F10</f>
+      <c r="O10" s="2">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="P10" s="3">
-        <f>H10-G10</f>
+      <c r="P10" s="2">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>2679</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>45314</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>18</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>26</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>38</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>51</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>38000000</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="J11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="11">
         <v>58000000</v>
       </c>
-      <c r="L11" s="4">
-        <f>D11-C11</f>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M11" s="4">
-        <f>E11-D11</f>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N11" s="4">
-        <f>F11-E11</f>
-        <v>6</v>
-      </c>
-      <c r="O11" s="4">
-        <f>G11-F11</f>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="P11" s="4">
-        <f>H11-G11</f>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2680</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>45316</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>42</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>45</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>46</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>57</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>58000000</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="J12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="5">
         <v>65000000</v>
       </c>
-      <c r="L12" s="3">
-        <f>D12-C12</f>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M12" s="3">
-        <f>E12-D12</f>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="N12" s="3">
-        <f>F12-E12</f>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O12" s="3">
-        <f>G12-F12</f>
+      <c r="O12" s="2">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P12" s="3">
-        <f>H12-G12</f>
+      <c r="P12" s="2">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>2681</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>45318</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>20</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>30</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>42</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>47</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>53</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>65000000</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="J13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="11">
         <v>76000000</v>
       </c>
-      <c r="L13" s="4">
-        <f>D13-C13</f>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M13" s="4">
-        <f>E13-D13</f>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N13" s="4">
-        <f>F13-E13</f>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O13" s="4">
-        <f>G13-F13</f>
+      <c r="O13" s="3">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P13" s="4">
-        <f>H13-G13</f>
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2682</v>
+      </c>
+      <c r="B14" s="12">
+        <v>45321</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2">
+        <v>58</v>
+      </c>
+      <c r="I14" s="5">
+        <v>76000000</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="5">
+        <v>83000000</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14" si="5">D14-C14</f>
+        <v>13</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ref="M14" si="6">E14-D14</f>
+        <v>12</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ref="N14" si="7">F14-E14</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" ref="O14" si="8">G14-F14</f>
+        <v>22</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" ref="P14" si="9">H14-G14</f>
         <v>6</v>
       </c>
     </row>
